--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H2">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I2">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J2">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>197.7959708470475</v>
+        <v>2677.982252128452</v>
       </c>
       <c r="R2">
-        <v>197.7959708470475</v>
+        <v>24101.84026915607</v>
       </c>
       <c r="S2">
-        <v>0.01115471629057019</v>
+        <v>0.07632360616131172</v>
       </c>
       <c r="T2">
-        <v>0.01115471629057019</v>
+        <v>0.07632360616131173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H3">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I3">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J3">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>392.4281874477825</v>
+        <v>4114.19406552798</v>
       </c>
       <c r="R3">
-        <v>392.4281874477825</v>
+        <v>37027.74658975182</v>
       </c>
       <c r="S3">
-        <v>0.02213101246024727</v>
+        <v>0.1172562391998636</v>
       </c>
       <c r="T3">
-        <v>0.02213101246024727</v>
+        <v>0.1172562391998637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H4">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I4">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J4">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>184.2289466653944</v>
+        <v>2055.834009979132</v>
       </c>
       <c r="R4">
-        <v>184.2289466653944</v>
+        <v>18502.50608981218</v>
       </c>
       <c r="S4">
-        <v>0.0103896031034534</v>
+        <v>0.0585921229261198</v>
       </c>
       <c r="T4">
-        <v>0.0103896031034534</v>
+        <v>0.0585921229261198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H5">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I5">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J5">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>206.7814882176707</v>
+        <v>2157.815934076908</v>
       </c>
       <c r="R5">
-        <v>206.7814882176707</v>
+        <v>19420.34340669217</v>
       </c>
       <c r="S5">
-        <v>0.01166145511120471</v>
+        <v>0.06149865010874957</v>
       </c>
       <c r="T5">
-        <v>0.01166145511120471</v>
+        <v>0.06149865010874958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H6">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I6">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J6">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>154.4140847372483</v>
+        <v>1643.709841006201</v>
       </c>
       <c r="R6">
-        <v>154.4140847372483</v>
+        <v>14793.38856905581</v>
       </c>
       <c r="S6">
-        <v>0.008708192078614228</v>
+        <v>0.0468464129845219</v>
       </c>
       <c r="T6">
-        <v>0.008708192078614228</v>
+        <v>0.04684641298452191</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H7">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I7">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J7">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>291.8316633921704</v>
+        <v>3272.22520679708</v>
       </c>
       <c r="R7">
-        <v>291.8316633921704</v>
+        <v>29450.02686117372</v>
       </c>
       <c r="S7">
-        <v>0.01645786512133815</v>
+        <v>0.09325977711622178</v>
       </c>
       <c r="T7">
-        <v>0.01645786512133815</v>
+        <v>0.09325977711622178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H8">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I8">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J8">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>569.6923520964541</v>
+        <v>764.8880158007016</v>
       </c>
       <c r="R8">
-        <v>569.6923520964541</v>
+        <v>6883.992142206315</v>
       </c>
       <c r="S8">
-        <v>0.03212783624120231</v>
+        <v>0.02179962605393686</v>
       </c>
       <c r="T8">
-        <v>0.03212783624120231</v>
+        <v>0.02179962605393686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H9">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I9">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J9">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>1130.272452864843</v>
+        <v>1175.100295343471</v>
       </c>
       <c r="R9">
-        <v>1130.272452864843</v>
+        <v>10575.90265809124</v>
       </c>
       <c r="S9">
-        <v>0.06374178649222166</v>
+        <v>0.03349084635290338</v>
       </c>
       <c r="T9">
-        <v>0.06374178649222166</v>
+        <v>0.03349084635290338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H10">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I10">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J10">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>530.61658182724</v>
+        <v>587.1894018187511</v>
       </c>
       <c r="R10">
-        <v>530.61658182724</v>
+        <v>5284.704616368759</v>
       </c>
       <c r="S10">
-        <v>0.02992415570452626</v>
+        <v>0.01673514176984953</v>
       </c>
       <c r="T10">
-        <v>0.02992415570452626</v>
+        <v>0.01673514176984952</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H11">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I11">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J11">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>595.57245725609</v>
+        <v>616.3175827500056</v>
       </c>
       <c r="R11">
-        <v>595.57245725609</v>
+        <v>5546.85824475005</v>
       </c>
       <c r="S11">
-        <v>0.0335873464091273</v>
+        <v>0.01756530702125309</v>
       </c>
       <c r="T11">
-        <v>0.0335873464091273</v>
+        <v>0.01756530702125309</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H12">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I12">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J12">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>444.7437566805081</v>
+        <v>469.4780773248432</v>
       </c>
       <c r="R12">
-        <v>444.7437566805081</v>
+        <v>4225.302695923589</v>
       </c>
       <c r="S12">
-        <v>0.0250813522971593</v>
+        <v>0.01338032014462822</v>
       </c>
       <c r="T12">
-        <v>0.0250813522971593</v>
+        <v>0.01338032014462822</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H13">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I13">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J13">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>840.534142440485</v>
+        <v>934.616293177736</v>
       </c>
       <c r="R13">
-        <v>840.534142440485</v>
+        <v>8411.546638599622</v>
       </c>
       <c r="S13">
-        <v>0.04740197614395077</v>
+        <v>0.02663695243526991</v>
       </c>
       <c r="T13">
-        <v>0.04740197614395077</v>
+        <v>0.0266369524352699</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H14">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I14">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J14">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>4.514419345824105</v>
+        <v>6.096515217909333</v>
       </c>
       <c r="R14">
-        <v>4.514419345824105</v>
+        <v>54.868636961184</v>
       </c>
       <c r="S14">
-        <v>0.0002545909646373419</v>
+        <v>0.000173753215159783</v>
       </c>
       <c r="T14">
-        <v>0.0002545909646373419</v>
+        <v>0.0001737532151597831</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H15">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I15">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J15">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>8.956630378638485</v>
+        <v>9.366098938851554</v>
       </c>
       <c r="R15">
-        <v>8.956630378638485</v>
+        <v>84.294890449664</v>
       </c>
       <c r="S15">
-        <v>0.000505109736893844</v>
+        <v>0.00026693770883232</v>
       </c>
       <c r="T15">
-        <v>0.000505109736893844</v>
+        <v>0.0002669377088323201</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H16">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I16">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J16">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>4.204770791464625</v>
+        <v>4.680174156259556</v>
       </c>
       <c r="R16">
-        <v>4.204770791464625</v>
+        <v>42.121567406336</v>
       </c>
       <c r="S16">
-        <v>0.0002371283148226187</v>
+        <v>0.0001333869067970096</v>
       </c>
       <c r="T16">
-        <v>0.0002371283148226187</v>
+        <v>0.0001333869067970096</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H17">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I17">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J17">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>4.719501346617476</v>
+        <v>4.912339381297778</v>
       </c>
       <c r="R17">
-        <v>4.719501346617476</v>
+        <v>44.21105443168</v>
       </c>
       <c r="S17">
-        <v>0.0002661565770477259</v>
+        <v>0.0001400037121123122</v>
       </c>
       <c r="T17">
-        <v>0.0002661565770477259</v>
+        <v>0.0001400037121123122</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H18">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I18">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J18">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>3.524287822549252</v>
+        <v>3.741959847402666</v>
       </c>
       <c r="R18">
-        <v>3.524287822549252</v>
+        <v>33.677638626624</v>
       </c>
       <c r="S18">
-        <v>0.0001987524347361351</v>
+        <v>0.0001066474094208837</v>
       </c>
       <c r="T18">
-        <v>0.0001987524347361351</v>
+        <v>0.0001066474094208837</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H19">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I19">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J19">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>6.660653911703823</v>
+        <v>7.449328969155554</v>
       </c>
       <c r="R19">
-        <v>6.660653911703823</v>
+        <v>67.04396072239999</v>
       </c>
       <c r="S19">
-        <v>0.0003756279987734734</v>
+        <v>0.0002123089687976793</v>
       </c>
       <c r="T19">
-        <v>0.0003756279987734734</v>
+        <v>0.0002123089687976793</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H20">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I20">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J20">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>1685.00325417696</v>
+        <v>12.624685757372</v>
       </c>
       <c r="R20">
-        <v>1685.00325417696</v>
+        <v>113.622171816348</v>
       </c>
       <c r="S20">
-        <v>0.0950258651303164</v>
+        <v>0.0003598087862196046</v>
       </c>
       <c r="T20">
-        <v>0.0950258651303164</v>
+        <v>0.0003598087862196047</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H21">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I21">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J21">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>3343.054815770784</v>
+        <v>19.39535154904533</v>
       </c>
       <c r="R21">
-        <v>3343.054815770784</v>
+        <v>174.558163941408</v>
       </c>
       <c r="S21">
-        <v>0.1885317878521596</v>
+        <v>0.0005527755726584694</v>
       </c>
       <c r="T21">
-        <v>0.1885317878521596</v>
+        <v>0.0005527755726584695</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H22">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I22">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J22">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>1569.427189620718</v>
+        <v>9.691721565621332</v>
       </c>
       <c r="R22">
-        <v>1569.427189620718</v>
+        <v>87.22549409059199</v>
       </c>
       <c r="S22">
-        <v>0.08850794565711116</v>
+        <v>0.0002762180889031871</v>
       </c>
       <c r="T22">
-        <v>0.08850794565711116</v>
+        <v>0.0002762180889031871</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H23">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I23">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J23">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>1761.549939860824</v>
+        <v>10.17249015310667</v>
       </c>
       <c r="R23">
-        <v>1761.549939860824</v>
+        <v>91.55241137796001</v>
       </c>
       <c r="S23">
-        <v>0.09934272031260538</v>
+        <v>0.0002899201932755354</v>
       </c>
       <c r="T23">
-        <v>0.09934272031260538</v>
+        <v>0.0002899201932755355</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H24">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I24">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J24">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>1315.43748924097</v>
+        <v>7.748863982391998</v>
       </c>
       <c r="R24">
-        <v>1315.43748924097</v>
+        <v>69.73977584152799</v>
       </c>
       <c r="S24">
-        <v>0.07418418043413866</v>
+        <v>0.000220845841050515</v>
       </c>
       <c r="T24">
-        <v>0.07418418043413866</v>
+        <v>0.000220845841050515</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.133172</v>
+      </c>
+      <c r="H25">
+        <v>0.399516</v>
+      </c>
+      <c r="I25">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="J25">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N25">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q25">
+        <v>15.42609736503333</v>
+      </c>
+      <c r="R25">
+        <v>138.8348762853</v>
+      </c>
+      <c r="S25">
+        <v>0.0004396501802650401</v>
+      </c>
+      <c r="T25">
+        <v>0.0004396501802650401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H26">
+        <v>77.213701</v>
+      </c>
+      <c r="I26">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J26">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>94.799851</v>
+      </c>
+      <c r="N26">
+        <v>284.399553</v>
+      </c>
+      <c r="O26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q26">
+        <v>2439.949116652851</v>
+      </c>
+      <c r="R26">
+        <v>21959.54204987565</v>
+      </c>
+      <c r="S26">
+        <v>0.06953956296201773</v>
+      </c>
+      <c r="T26">
+        <v>0.06953956296201773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H27">
+        <v>77.213701</v>
+      </c>
+      <c r="I27">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J27">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N27">
+        <v>436.924088</v>
+      </c>
+      <c r="O27">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P27">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q27">
+        <v>3748.50287672552</v>
+      </c>
+      <c r="R27">
+        <v>33736.52589052969</v>
+      </c>
+      <c r="S27">
+        <v>0.1068338884734399</v>
+      </c>
+      <c r="T27">
+        <v>0.10683388847344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H28">
+        <v>77.213701</v>
+      </c>
+      <c r="I28">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J28">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N28">
+        <v>218.327912</v>
+      </c>
+      <c r="O28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q28">
+        <v>1873.100679680257</v>
+      </c>
+      <c r="R28">
+        <v>16857.90611712231</v>
+      </c>
+      <c r="S28">
+        <v>0.05338414713644035</v>
+      </c>
+      <c r="T28">
+        <v>0.05338414713644035</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H29">
+        <v>77.213701</v>
+      </c>
+      <c r="I29">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J29">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N29">
+        <v>229.15831</v>
+      </c>
+      <c r="O29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q29">
+        <v>1966.017914445034</v>
+      </c>
+      <c r="R29">
+        <v>17694.16123000531</v>
+      </c>
+      <c r="S29">
+        <v>0.05603232690915859</v>
+      </c>
+      <c r="T29">
+        <v>0.0560323269091586</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>23.073107193021</v>
-      </c>
-      <c r="H25">
-        <v>23.073107193021</v>
-      </c>
-      <c r="I25">
-        <v>0.6857953365194732</v>
-      </c>
-      <c r="J25">
-        <v>0.6857953365194732</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>107.748102341015</v>
-      </c>
-      <c r="N25">
-        <v>107.748102341015</v>
-      </c>
-      <c r="O25">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="P25">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="Q25">
-        <v>2486.083515158836</v>
-      </c>
-      <c r="R25">
-        <v>2486.083515158836</v>
-      </c>
-      <c r="S25">
-        <v>0.1402028371331419</v>
-      </c>
-      <c r="T25">
-        <v>0.1402028371331419</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H30">
+        <v>77.213701</v>
+      </c>
+      <c r="I30">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J30">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N30">
+        <v>174.560658</v>
+      </c>
+      <c r="O30">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P30">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q30">
+        <v>1497.608272575028</v>
+      </c>
+      <c r="R30">
+        <v>13478.47445317526</v>
+      </c>
+      <c r="S30">
+        <v>0.04268245761863852</v>
+      </c>
+      <c r="T30">
+        <v>0.04268245761863853</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H31">
+        <v>77.213701</v>
+      </c>
+      <c r="I31">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J31">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N31">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q31">
+        <v>2981.372634739464</v>
+      </c>
+      <c r="R31">
+        <v>26832.35371265517</v>
+      </c>
+      <c r="S31">
+        <v>0.08497035804218332</v>
+      </c>
+      <c r="T31">
+        <v>0.08497035804218332</v>
       </c>
     </row>
   </sheetData>
